--- a/biology/Botanique/Glenniea/Glenniea.xlsx
+++ b/biology/Botanique/Glenniea/Glenniea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glenniea est un genre de plantes de la famille des Sapindaceae.
 </t>
@@ -511,19 +523,21 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                  (6 août 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                  (6 août 2018) :
 Glenniea bhotiaensis Golovatch, 1988
 Glenniea indica Turk, 1945
 Glenniea minuscula Golovatch, 1988
 Glenniea nova Turk, 1947
 Glenniea perarmata Golovatch, 1988
 Glenniea prima Golovatch, Liu, Li &amp; Geoffroy, 2012
-Selon NCBI  (6 août 2018)[3] :
+Selon NCBI  (6 août 2018) :
 Glenniea africana
 Glenniea pervillei
-Selon The Plant List            (6 août 2018)[4] :
+Selon The Plant List            (6 août 2018) :
 Glenniea adamii (Fouilloy) Leenh.
 Glenniea africana (Radlk.) Leenh.
 Glenniea penangensis (Ridl.) Leenh.
@@ -532,7 +546,7 @@
 Glenniea thorelii (Pierre) Leenh.
 Glenniea unijuga (Thwaites) Hook.f.
 Glenniea unijugata (Pellegr.) Leenh.
-Selon Tropicos                                           (6 août 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (6 août 2018) (Attention liste brute contenant possiblement des synonymes) :
 Glenniea adamii (Fouilloy) Leenh.
 Glenniea africana (Radlk.) Leenh.
 Glenniea penangensis (Ridl.) Leenh.
